--- a/Warehouse/Resources/Template.xlsx
+++ b/Warehouse/Resources/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Производственная практика\Warehouse\Warehouse\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0F3189-6E49-4DE7-9F94-7235C858C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B47FB97-924B-4D54-9C25-DD39B7B4EBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Реестр документов по поступлению</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Отчёт о движении продуктов</t>
+  </si>
+  <si>
+    <t>Период: 2023-10-14 - 2023-10-29</t>
   </si>
   <si>
     <t>Номер заказа</t>
@@ -144,11 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
@@ -465,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -508,119 +514,152 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageSetup orientation="landscape"/>
   <headerFooter/>

--- a/Warehouse/Resources/Template.xlsx
+++ b/Warehouse/Resources/Template.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Отчёт о движении продуктов</t>
   </si>
   <si>
-    <t>Период: 2023-10-14 - 2023-10-29</t>
+    <t>Период: 2023-10-07 - 2023-10-29</t>
+  </si>
+  <si>
+    <t>ОАО Гомельский Мясокомбинат</t>
+  </si>
+  <si>
+    <t>Адрес: Гомель, ул. Ильича, 2</t>
   </si>
   <si>
     <t>Номер заказа</t>
@@ -471,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,133 +539,182 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageSetup orientation="landscape"/>
   <headerFooter/>

--- a/Warehouse/Resources/Template.xlsx
+++ b/Warehouse/Resources/Template.xlsx
@@ -8,26 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Производственная практика\Warehouse\Warehouse\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B47FB97-924B-4D54-9C25-DD39B7B4EBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051B194A-951A-4573-A51E-6CDF039BA686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Отчёт о движении" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Отчёт о движении продуктов</t>
   </si>
   <si>
-    <t>Период: 2023-10-07 - 2023-10-29</t>
-  </si>
-  <si>
     <t>ОАО Гомельский Мясокомбинат</t>
   </si>
   <si>
@@ -113,14 +110,16 @@
   </si>
   <si>
     <t>Новое, Тесто, Магма</t>
+  </si>
+  <si>
+    <t>Период: 2023-10-01 - 2023-10-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -143,26 +142,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,247 +484,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.975940159389" customWidth="1" style="1"/>
-    <col min="2" max="2" width="11.4898910522461" customWidth="1" style="1"/>
-    <col min="3" max="3" width="11.172741481236" customWidth="1" style="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="19.4565015520368" customWidth="1" style="1"/>
-    <col min="6" max="6" width="13.309924534389" customWidth="1" style="1"/>
-    <col min="7" max="7" width="20.322014944894" customWidth="1" style="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Warehouse/Resources/Template.xlsx
+++ b/Warehouse/Resources/Template.xlsx
@@ -10,24 +10,30 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051B194A-951A-4573-A51E-6CDF039BA686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
   <sheets>
-    <sheet name="Отчёт о движении" sheetId="3" r:id="rId1"/>
+    <sheet name="Отчёт о движении" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Отчёт о движении продуктов</t>
   </si>
   <si>
+    <t>Период: 2023-10-01 - 2023-10-31</t>
+  </si>
+  <si>
     <t>ОАО Гомельский Мясокомбинат</t>
   </si>
   <si>
+    <t>Главный склад</t>
+  </si>
+  <si>
     <t>Адрес: Гомель, ул. Ильича, 2</t>
   </si>
   <si>
@@ -49,7 +55,7 @@
     <t>Тип</t>
   </si>
   <si>
-    <t>Товары</t>
+    <t>Продукты</t>
   </si>
   <si>
     <t>30004</t>
@@ -110,16 +116,14 @@
   </si>
   <si>
     <t>Новое, Тесто, Магма</t>
-  </si>
-  <si>
-    <t>Период: 2023-10-01 - 2023-10-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -142,35 +146,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,249 +479,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.975940159389" customWidth="1" style="1"/>
+    <col min="2" max="2" width="11.4898910522461" customWidth="1" style="1"/>
+    <col min="3" max="3" width="11.172741481236" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
+    <col min="5" max="5" width="19.4565015520368" customWidth="1" style="1"/>
+    <col min="6" max="6" width="13.309924534389" customWidth="1" style="1"/>
+    <col min="7" max="7" width="20.322014944894" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Warehouse/Resources/Template.xlsx
+++ b/Warehouse/Resources/Template.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Отчёт о движении продуктов</t>
   </si>
   <si>
-    <t>Период: 2023-10-01 - 2023-10-31</t>
+    <t>Период: 2023-11-01 - 2023-11-30</t>
   </si>
   <si>
     <t>ОАО Гомельский Мясокомбинат</t>
@@ -58,64 +58,40 @@
     <t>Продукты</t>
   </si>
   <si>
-    <t>30004</t>
-  </si>
-  <si>
-    <t>Тестик</t>
+    <t>70004</t>
+  </si>
+  <si>
+    <t>Сбербанк</t>
   </si>
   <si>
     <t>лебенков</t>
   </si>
   <si>
-    <t>249000</t>
-  </si>
-  <si>
-    <t>26.10.2023 00:00:00</t>
+    <t>11300</t>
+  </si>
+  <si>
+    <t>01.11.2023 00:00:00</t>
+  </si>
+  <si>
+    <t>Поступление</t>
+  </si>
+  <si>
+    <t>Докторская, Волковыское</t>
+  </si>
+  <si>
+    <t>70005</t>
+  </si>
+  <si>
+    <t>5000</t>
   </si>
   <si>
     <t>Выбытие</t>
   </si>
   <si>
-    <t>Магма</t>
-  </si>
-  <si>
-    <t>40002</t>
-  </si>
-  <si>
-    <t>Нетушки</t>
-  </si>
-  <si>
-    <t>157500</t>
-  </si>
-  <si>
-    <t>27.10.2023 00:00:00</t>
-  </si>
-  <si>
-    <t>Поступление</t>
-  </si>
-  <si>
-    <t>Тесто, Новое, Магма</t>
-  </si>
-  <si>
-    <t>40003</t>
-  </si>
-  <si>
-    <t>18500</t>
-  </si>
-  <si>
-    <t>Тесто, Новое</t>
-  </si>
-  <si>
-    <t>50002</t>
-  </si>
-  <si>
-    <t>193025</t>
-  </si>
-  <si>
-    <t>28.10.2023 00:00:00</t>
-  </si>
-  <si>
-    <t>Новое, Тесто, Магма</t>
+    <t>Докторская</t>
+  </si>
+  <si>
+    <t>70006</t>
   </si>
 </sst>
 </file>
@@ -480,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +468,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
     <col min="5" max="5" width="19.4565015520368" customWidth="1" style="1"/>
     <col min="6" max="6" width="13.309924534389" customWidth="1" style="1"/>
-    <col min="7" max="7" width="20.322014944894" customWidth="1" style="1"/>
+    <col min="7" max="7" width="25.1897583007813" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -670,68 +646,45 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Warehouse/Resources/Template.xlsx
+++ b/Warehouse/Resources/Template.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Отчёт о движении продуктов</t>
   </si>
   <si>
-    <t>Период: 2023-11-01 - 2023-11-30</t>
+    <t>Период: 2023-11-02 - 2023-11-02</t>
   </si>
   <si>
     <t>ОАО Гомельский Мясокомбинат</t>
@@ -58,40 +58,7 @@
     <t>Продукты</t>
   </si>
   <si>
-    <t>70004</t>
-  </si>
-  <si>
-    <t>Сбербанк</t>
-  </si>
-  <si>
-    <t>лебенков</t>
-  </si>
-  <si>
-    <t>11300</t>
-  </si>
-  <si>
-    <t>01.11.2023 00:00:00</t>
-  </si>
-  <si>
-    <t>Поступление</t>
-  </si>
-  <si>
-    <t>Докторская, Волковыское</t>
-  </si>
-  <si>
-    <t>70005</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>Выбытие</t>
-  </si>
-  <si>
-    <t>Докторская</t>
-  </si>
-  <si>
-    <t>70006</t>
+    <t>Составил: _______________</t>
   </si>
 </sst>
 </file>
@@ -135,10 +102,10 @@
   <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -456,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,9 +433,9 @@
     <col min="2" max="2" width="11.4898910522461" customWidth="1" style="1"/>
     <col min="3" max="3" width="11.172741481236" customWidth="1" style="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="19.4565015520368" customWidth="1" style="1"/>
-    <col min="6" max="6" width="13.309924534389" customWidth="1" style="1"/>
-    <col min="7" max="7" width="25.1897583007813" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="7" max="7" width="10.4801254272461" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -586,15 +553,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
     <row r="7">
       <c r="A7" s="4" t="s">
         <v>5</v>
@@ -618,73 +576,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
